--- a/agesheet.xlsx
+++ b/agesheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -43,13 +43,15 @@
   </si>
   <si>
     <t>Minor</t>
+  </si>
+  <si>
+    <t>Revanth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -94,9 +96,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -451,6 +454,17 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
     </row>

--- a/agesheet.xlsx
+++ b/agesheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Revanth</t>
+  </si>
+  <si>
+    <t>NewName</t>
   </si>
 </sst>
 </file>
@@ -394,13 +397,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -466,6 +472,17 @@
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/agesheet.xlsx
+++ b/agesheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>NewName</t>
+  </si>
+  <si>
+    <t>NewNew</t>
   </si>
 </sst>
 </file>
@@ -397,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -482,6 +485,17 @@
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
